--- a/output/金門縣/2020_總統候選人得票數一覽表_各村里_金門縣.xlsx
+++ b/output/金門縣/2020_總統候選人得票數一覽表_各村里_金門縣.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,570 +580,1800 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>188</v>
+        <v>1636</v>
       </c>
       <c r="D6" t="n">
-        <v>4776</v>
+        <v>35948</v>
       </c>
       <c r="E6" t="n">
-        <v>1226</v>
+        <v>10456</v>
       </c>
       <c r="F6" t="n">
-        <v>6190</v>
+        <v>48040</v>
       </c>
       <c r="G6" t="n">
-        <v>82</v>
+        <v>423</v>
       </c>
       <c r="H6" t="n">
-        <v>6272</v>
+        <v>48463</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6272</v>
+        <v>48463</v>
       </c>
       <c r="K6" t="n">
-        <v>4667</v>
+        <v>72258</v>
       </c>
       <c r="L6" t="n">
-        <v>10939</v>
+        <v>120721</v>
       </c>
       <c r="M6" t="n">
-        <v>57.34</v>
+        <v>40.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">　南竿鄉</t>
+          <t xml:space="preserve">　金城鎮</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>114</v>
+        <v>505</v>
       </c>
       <c r="D7" t="n">
-        <v>2875</v>
+        <v>11492</v>
       </c>
       <c r="E7" t="n">
-        <v>784</v>
+        <v>3170</v>
       </c>
       <c r="F7" t="n">
-        <v>3773</v>
+        <v>15167</v>
       </c>
       <c r="G7" t="n">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>3826</v>
+        <v>15295</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3826</v>
+        <v>15295</v>
       </c>
       <c r="K7" t="n">
-        <v>2431</v>
+        <v>21793</v>
       </c>
       <c r="L7" t="n">
-        <v>6257</v>
+        <v>37088</v>
       </c>
       <c r="M7" t="n">
-        <v>61.15</v>
+        <v>41.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>介壽村</t>
+          <t>東門里</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D8" t="n">
-        <v>915</v>
+        <v>1579</v>
       </c>
       <c r="E8" t="n">
-        <v>247</v>
+        <v>421</v>
       </c>
       <c r="F8" t="n">
-        <v>1202</v>
+        <v>2065</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H8" t="n">
-        <v>1222</v>
+        <v>2083</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1222</v>
+        <v>2083</v>
       </c>
       <c r="K8" t="n">
-        <v>696</v>
+        <v>2705</v>
       </c>
       <c r="L8" t="n">
-        <v>1918</v>
+        <v>4788</v>
       </c>
       <c r="M8" t="n">
-        <v>63.71</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>復興村、福沃村</t>
+          <t>西門里</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="D9" t="n">
-        <v>765</v>
+        <v>3036</v>
       </c>
       <c r="E9" t="n">
-        <v>196</v>
+        <v>846</v>
       </c>
       <c r="F9" t="n">
-        <v>988</v>
+        <v>4013</v>
       </c>
       <c r="G9" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H9" t="n">
-        <v>1007</v>
+        <v>4044</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1007</v>
+        <v>4044</v>
       </c>
       <c r="K9" t="n">
-        <v>715</v>
+        <v>5434</v>
       </c>
       <c r="L9" t="n">
-        <v>1722</v>
+        <v>9478</v>
       </c>
       <c r="M9" t="n">
-        <v>58.48</v>
+        <v>42.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>清水村、珠螺村</t>
+          <t>南門里</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D10" t="n">
-        <v>495</v>
+        <v>1638</v>
       </c>
       <c r="E10" t="n">
-        <v>170</v>
+        <v>464</v>
       </c>
       <c r="F10" t="n">
-        <v>690</v>
+        <v>2189</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H10" t="n">
-        <v>697</v>
+        <v>2207</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>697</v>
+        <v>2207</v>
       </c>
       <c r="K10" t="n">
-        <v>420</v>
+        <v>3060</v>
       </c>
       <c r="L10" t="n">
-        <v>1117</v>
+        <v>5267</v>
       </c>
       <c r="M10" t="n">
-        <v>62.4</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>仁愛村、津沙村、馬祖村、四維村</t>
+          <t>北門里</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D11" t="n">
-        <v>700</v>
+        <v>1330</v>
       </c>
       <c r="E11" t="n">
-        <v>171</v>
+        <v>327</v>
       </c>
       <c r="F11" t="n">
-        <v>893</v>
+        <v>1712</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H11" t="n">
-        <v>900</v>
+        <v>1731</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>900</v>
+        <v>1731</v>
       </c>
       <c r="K11" t="n">
-        <v>600</v>
+        <v>2438</v>
       </c>
       <c r="L11" t="n">
-        <v>1500</v>
+        <v>4169</v>
       </c>
       <c r="M11" t="n">
-        <v>60</v>
+        <v>41.52</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">　北竿鄉</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>古城里</t>
+        </is>
+      </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D12" t="n">
-        <v>883</v>
+        <v>1107</v>
       </c>
       <c r="E12" t="n">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c r="F12" t="n">
-        <v>1109</v>
+        <v>1424</v>
       </c>
       <c r="G12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>1123</v>
+        <v>1435</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1123</v>
+        <v>1435</v>
       </c>
       <c r="K12" t="n">
-        <v>1066</v>
+        <v>2411</v>
       </c>
       <c r="L12" t="n">
-        <v>2189</v>
+        <v>3846</v>
       </c>
       <c r="M12" t="n">
-        <v>51.3</v>
+        <v>37.31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>塘岐村、后沃村</t>
+          <t>金水里</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>487</v>
+        <v>663</v>
       </c>
       <c r="E13" t="n">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="F13" t="n">
-        <v>623</v>
+        <v>875</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>629</v>
+        <v>887</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>629</v>
+        <v>887</v>
       </c>
       <c r="K13" t="n">
-        <v>592</v>
+        <v>1271</v>
       </c>
       <c r="L13" t="n">
-        <v>1221</v>
+        <v>2158</v>
       </c>
       <c r="M13" t="n">
-        <v>51.52</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>橋仔村、芹壁村、坂里村、白沙村</t>
+          <t>珠沙里</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
-        <v>396</v>
+        <v>789</v>
       </c>
       <c r="E14" t="n">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="F14" t="n">
-        <v>486</v>
+        <v>1049</v>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>494</v>
+        <v>1054</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>494</v>
+        <v>1054</v>
       </c>
       <c r="K14" t="n">
-        <v>474</v>
+        <v>1733</v>
       </c>
       <c r="L14" t="n">
-        <v>968</v>
+        <v>2787</v>
       </c>
       <c r="M14" t="n">
-        <v>51.03</v>
+        <v>37.82</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">　莒光鄉</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>賢庵里</t>
+        </is>
+      </c>
       <c r="C15" t="n">
+        <v>56</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1350</v>
+      </c>
+      <c r="E15" t="n">
+        <v>434</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1840</v>
+      </c>
+      <c r="G15" t="n">
         <v>14</v>
       </c>
-      <c r="D15" t="n">
-        <v>513</v>
-      </c>
-      <c r="E15" t="n">
-        <v>105</v>
-      </c>
-      <c r="F15" t="n">
-        <v>632</v>
-      </c>
-      <c r="G15" t="n">
-        <v>9</v>
-      </c>
       <c r="H15" t="n">
-        <v>641</v>
+        <v>1854</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>641</v>
+        <v>1854</v>
       </c>
       <c r="K15" t="n">
-        <v>733</v>
+        <v>2741</v>
       </c>
       <c r="L15" t="n">
-        <v>1374</v>
+        <v>4595</v>
       </c>
       <c r="M15" t="n">
-        <v>46.65</v>
+        <v>40.35</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>青帆村、田沃村、西坵村</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　金沙鎮</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="D16" t="n">
-        <v>228</v>
+        <v>5736</v>
       </c>
       <c r="E16" t="n">
-        <v>43</v>
+        <v>1198</v>
       </c>
       <c r="F16" t="n">
-        <v>280</v>
+        <v>7119</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="H16" t="n">
-        <v>283</v>
+        <v>7191</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>283</v>
+        <v>7191</v>
       </c>
       <c r="K16" t="n">
-        <v>357</v>
+        <v>11143</v>
       </c>
       <c r="L16" t="n">
-        <v>640</v>
+        <v>18334</v>
       </c>
       <c r="M16" t="n">
-        <v>44.22</v>
+        <v>39.22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>福正村、大坪村</t>
+          <t>汶沙里</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D17" t="n">
-        <v>285</v>
+        <v>1619</v>
       </c>
       <c r="E17" t="n">
-        <v>62</v>
+        <v>383</v>
       </c>
       <c r="F17" t="n">
-        <v>352</v>
+        <v>2066</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H17" t="n">
-        <v>358</v>
+        <v>2088</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>358</v>
+        <v>2088</v>
       </c>
       <c r="K17" t="n">
-        <v>376</v>
+        <v>3036</v>
       </c>
       <c r="L17" t="n">
-        <v>734</v>
+        <v>5124</v>
       </c>
       <c r="M17" t="n">
-        <v>48.77</v>
+        <v>40.75</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">　東引鄉</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>三山里</t>
+        </is>
+      </c>
       <c r="C18" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>505</v>
+        <v>577</v>
       </c>
       <c r="E18" t="n">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="F18" t="n">
-        <v>676</v>
+        <v>714</v>
       </c>
       <c r="G18" t="n">
         <v>6</v>
       </c>
       <c r="H18" t="n">
-        <v>682</v>
+        <v>720</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>682</v>
+        <v>720</v>
       </c>
       <c r="K18" t="n">
-        <v>437</v>
+        <v>1186</v>
       </c>
       <c r="L18" t="n">
-        <v>1119</v>
+        <v>1906</v>
       </c>
       <c r="M18" t="n">
-        <v>60.95</v>
+        <v>37.78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>中柳村、樂華村</t>
+          <t>大洋里</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>505</v>
+        <v>375</v>
       </c>
       <c r="E19" t="n">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="F19" t="n">
-        <v>676</v>
+        <v>461</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>682</v>
+        <v>463</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>682</v>
+        <v>463</v>
       </c>
       <c r="K19" t="n">
-        <v>437</v>
+        <v>656</v>
       </c>
       <c r="L19" t="n">
         <v>1119</v>
       </c>
       <c r="M19" t="n">
-        <v>60.95</v>
+        <v>41.38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>光前里</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>26</v>
+      </c>
+      <c r="D20" t="n">
+        <v>728</v>
+      </c>
+      <c r="E20" t="n">
+        <v>170</v>
+      </c>
+      <c r="F20" t="n">
+        <v>924</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>929</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>929</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1297</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2226</v>
+      </c>
+      <c r="M20" t="n">
+        <v>41.73</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>何斗里</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>27</v>
+      </c>
+      <c r="D21" t="n">
+        <v>619</v>
+      </c>
+      <c r="E21" t="n">
+        <v>104</v>
+      </c>
+      <c r="F21" t="n">
+        <v>750</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>759</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>759</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1212</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1971</v>
+      </c>
+      <c r="M21" t="n">
+        <v>38.51</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>西園里</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>12</v>
+      </c>
+      <c r="D22" t="n">
+        <v>441</v>
+      </c>
+      <c r="E22" t="n">
+        <v>77</v>
+      </c>
+      <c r="F22" t="n">
+        <v>530</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>535</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>535</v>
+      </c>
+      <c r="K22" t="n">
+        <v>992</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1527</v>
+      </c>
+      <c r="M22" t="n">
+        <v>35.04</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>官嶼里</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>12</v>
+      </c>
+      <c r="D23" t="n">
+        <v>658</v>
+      </c>
+      <c r="E23" t="n">
+        <v>104</v>
+      </c>
+      <c r="F23" t="n">
+        <v>774</v>
+      </c>
+      <c r="G23" t="n">
+        <v>13</v>
+      </c>
+      <c r="H23" t="n">
+        <v>787</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>787</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1371</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2158</v>
+      </c>
+      <c r="M23" t="n">
+        <v>36.47</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>浦山里</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>17</v>
+      </c>
+      <c r="D24" t="n">
+        <v>719</v>
+      </c>
+      <c r="E24" t="n">
+        <v>164</v>
+      </c>
+      <c r="F24" t="n">
+        <v>900</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H24" t="n">
+        <v>910</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>910</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1393</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2303</v>
+      </c>
+      <c r="M24" t="n">
+        <v>39.51</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　金湖鎮</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>415</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8121</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2274</v>
+      </c>
+      <c r="F25" t="n">
+        <v>10810</v>
+      </c>
+      <c r="G25" t="n">
+        <v>87</v>
+      </c>
+      <c r="H25" t="n">
+        <v>10897</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10897</v>
+      </c>
+      <c r="K25" t="n">
+        <v>14960</v>
+      </c>
+      <c r="L25" t="n">
+        <v>25857</v>
+      </c>
+      <c r="M25" t="n">
+        <v>42.14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>新市里</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>87</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1438</v>
+      </c>
+      <c r="E26" t="n">
+        <v>381</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1906</v>
+      </c>
+      <c r="G26" t="n">
+        <v>14</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1920</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2340</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4260</v>
+      </c>
+      <c r="M26" t="n">
+        <v>45.07</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>山外里</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>56</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1007</v>
+      </c>
+      <c r="E27" t="n">
+        <v>264</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1327</v>
+      </c>
+      <c r="G27" t="n">
+        <v>18</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1345</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1345</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1848</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3193</v>
+      </c>
+      <c r="M27" t="n">
+        <v>42.12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>正義里</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>31</v>
+      </c>
+      <c r="D28" t="n">
+        <v>794</v>
+      </c>
+      <c r="E28" t="n">
+        <v>185</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1010</v>
+      </c>
+      <c r="G28" t="n">
+        <v>7</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1017</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1017</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1573</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2590</v>
+      </c>
+      <c r="M28" t="n">
+        <v>39.27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>料羅里</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>29</v>
+      </c>
+      <c r="D29" t="n">
+        <v>612</v>
+      </c>
+      <c r="E29" t="n">
+        <v>160</v>
+      </c>
+      <c r="F29" t="n">
+        <v>801</v>
+      </c>
+      <c r="G29" t="n">
+        <v>9</v>
+      </c>
+      <c r="H29" t="n">
+        <v>810</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>810</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1176</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1986</v>
+      </c>
+      <c r="M29" t="n">
+        <v>40.79</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>瓊林里</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>38</v>
+      </c>
+      <c r="D30" t="n">
+        <v>982</v>
+      </c>
+      <c r="E30" t="n">
+        <v>205</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1225</v>
+      </c>
+      <c r="G30" t="n">
+        <v>10</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1235</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1235</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1838</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3073</v>
+      </c>
+      <c r="M30" t="n">
+        <v>40.19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>新湖里</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>140</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2331</v>
+      </c>
+      <c r="E31" t="n">
+        <v>874</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3345</v>
+      </c>
+      <c r="G31" t="n">
+        <v>19</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3364</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3364</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4303</v>
+      </c>
+      <c r="L31" t="n">
+        <v>7667</v>
+      </c>
+      <c r="M31" t="n">
+        <v>43.88</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>溪湖里</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>14</v>
+      </c>
+      <c r="D32" t="n">
+        <v>425</v>
+      </c>
+      <c r="E32" t="n">
+        <v>86</v>
+      </c>
+      <c r="F32" t="n">
+        <v>525</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>528</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>528</v>
+      </c>
+      <c r="K32" t="n">
+        <v>937</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1465</v>
+      </c>
+      <c r="M32" t="n">
+        <v>36.04</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>蓮庵里</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>20</v>
+      </c>
+      <c r="D33" t="n">
+        <v>532</v>
+      </c>
+      <c r="E33" t="n">
+        <v>119</v>
+      </c>
+      <c r="F33" t="n">
+        <v>671</v>
+      </c>
+      <c r="G33" t="n">
+        <v>7</v>
+      </c>
+      <c r="H33" t="n">
+        <v>678</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>678</v>
+      </c>
+      <c r="K33" t="n">
+        <v>945</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1623</v>
+      </c>
+      <c r="M33" t="n">
+        <v>41.77</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　金寧鄉</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>437</v>
+      </c>
+      <c r="D34" t="n">
+        <v>7535</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3161</v>
+      </c>
+      <c r="F34" t="n">
+        <v>11133</v>
+      </c>
+      <c r="G34" t="n">
+        <v>111</v>
+      </c>
+      <c r="H34" t="n">
+        <v>11244</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>11244</v>
+      </c>
+      <c r="K34" t="n">
+        <v>16241</v>
+      </c>
+      <c r="L34" t="n">
+        <v>27485</v>
+      </c>
+      <c r="M34" t="n">
+        <v>40.91</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>古寧村</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>26</v>
+      </c>
+      <c r="D35" t="n">
+        <v>891</v>
+      </c>
+      <c r="E35" t="n">
+        <v>201</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1118</v>
+      </c>
+      <c r="G35" t="n">
+        <v>9</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1127</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1127</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2118</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3245</v>
+      </c>
+      <c r="M35" t="n">
+        <v>34.73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>安美村</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>76</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1330</v>
+      </c>
+      <c r="E36" t="n">
+        <v>446</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1852</v>
+      </c>
+      <c r="G36" t="n">
+        <v>25</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1877</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1877</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2918</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4795</v>
+      </c>
+      <c r="M36" t="n">
+        <v>39.14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>后盤村</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>13</v>
+      </c>
+      <c r="D37" t="n">
+        <v>454</v>
+      </c>
+      <c r="E37" t="n">
+        <v>91</v>
+      </c>
+      <c r="F37" t="n">
+        <v>558</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3</v>
+      </c>
+      <c r="H37" t="n">
+        <v>561</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>561</v>
+      </c>
+      <c r="K37" t="n">
+        <v>982</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1543</v>
+      </c>
+      <c r="M37" t="n">
+        <v>36.36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>湖埔村</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>140</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1884</v>
+      </c>
+      <c r="E38" t="n">
+        <v>975</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2999</v>
+      </c>
+      <c r="G38" t="n">
+        <v>29</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3028</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3028</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3795</v>
+      </c>
+      <c r="L38" t="n">
+        <v>6823</v>
+      </c>
+      <c r="M38" t="n">
+        <v>44.38</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>榜林村</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>59</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1459</v>
+      </c>
+      <c r="E39" t="n">
+        <v>460</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1978</v>
+      </c>
+      <c r="G39" t="n">
+        <v>18</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1996</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1996</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3089</v>
+      </c>
+      <c r="L39" t="n">
+        <v>5085</v>
+      </c>
+      <c r="M39" t="n">
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>盤山村</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>123</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1517</v>
+      </c>
+      <c r="E40" t="n">
+        <v>988</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G40" t="n">
+        <v>27</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2655</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2655</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3339</v>
+      </c>
+      <c r="L40" t="n">
+        <v>5994</v>
+      </c>
+      <c r="M40" t="n">
+        <v>44.29</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　烈嶼鄉</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="n">
+        <v>92</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2968</v>
+      </c>
+      <c r="E41" t="n">
+        <v>638</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3698</v>
+      </c>
+      <c r="G41" t="n">
+        <v>24</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3722</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3722</v>
+      </c>
+      <c r="K41" t="n">
+        <v>7694</v>
+      </c>
+      <c r="L41" t="n">
+        <v>11416</v>
+      </c>
+      <c r="M41" t="n">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>上岐村</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>24</v>
+      </c>
+      <c r="D42" t="n">
+        <v>728</v>
+      </c>
+      <c r="E42" t="n">
+        <v>150</v>
+      </c>
+      <c r="F42" t="n">
+        <v>902</v>
+      </c>
+      <c r="G42" t="n">
+        <v>6</v>
+      </c>
+      <c r="H42" t="n">
+        <v>908</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>908</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1863</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2771</v>
+      </c>
+      <c r="M42" t="n">
+        <v>32.77</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>上林村</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>13</v>
+      </c>
+      <c r="D43" t="n">
+        <v>340</v>
+      </c>
+      <c r="E43" t="n">
+        <v>62</v>
+      </c>
+      <c r="F43" t="n">
+        <v>415</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7</v>
+      </c>
+      <c r="H43" t="n">
+        <v>422</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>422</v>
+      </c>
+      <c r="K43" t="n">
+        <v>966</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1388</v>
+      </c>
+      <c r="M43" t="n">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>西口村</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>15</v>
+      </c>
+      <c r="D44" t="n">
+        <v>531</v>
+      </c>
+      <c r="E44" t="n">
+        <v>144</v>
+      </c>
+      <c r="F44" t="n">
+        <v>690</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="n">
+        <v>693</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>693</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1671</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2364</v>
+      </c>
+      <c r="M44" t="n">
+        <v>29.31</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>林湖村</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>34</v>
+      </c>
+      <c r="D45" t="n">
+        <v>975</v>
+      </c>
+      <c r="E45" t="n">
+        <v>189</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1198</v>
+      </c>
+      <c r="G45" t="n">
+        <v>6</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1204</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1204</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2102</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3306</v>
+      </c>
+      <c r="M45" t="n">
+        <v>36.42</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>黃埔村</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6</v>
+      </c>
+      <c r="D46" t="n">
+        <v>394</v>
+      </c>
+      <c r="E46" t="n">
+        <v>93</v>
+      </c>
+      <c r="F46" t="n">
+        <v>493</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>495</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>495</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1092</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1587</v>
+      </c>
+      <c r="M46" t="n">
+        <v>31.19</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　烏坵鄉</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>96</v>
+      </c>
+      <c r="E47" t="n">
+        <v>15</v>
+      </c>
+      <c r="F47" t="n">
+        <v>113</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>114</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>114</v>
+      </c>
+      <c r="K47" t="n">
+        <v>427</v>
+      </c>
+      <c r="L47" t="n">
+        <v>541</v>
+      </c>
+      <c r="M47" t="n">
+        <v>21.07</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>大坵村</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>60</v>
+      </c>
+      <c r="E48" t="n">
+        <v>10</v>
+      </c>
+      <c r="F48" t="n">
+        <v>71</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>71</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>71</v>
+      </c>
+      <c r="K48" t="n">
+        <v>193</v>
+      </c>
+      <c r="L48" t="n">
+        <v>264</v>
+      </c>
+      <c r="M48" t="n">
+        <v>26.89</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>小坵村</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>36</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>42</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>43</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>43</v>
+      </c>
+      <c r="K49" t="n">
+        <v>234</v>
+      </c>
+      <c r="L49" t="n">
+        <v>277</v>
+      </c>
+      <c r="M49" t="n">
+        <v>15.52</v>
       </c>
     </row>
   </sheetData>
